--- a/TestData/NewToursTestData.xlsx
+++ b/TestData/NewToursTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhre\Documents\GSync\PCSync\Programs_WorkSpace\MVNCucumberSelenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87598FC1-6793-4674-8590-7E4DE83D95EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419DF558-B1AE-4487-AC8F-C4C83E515C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="3888" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>bookingtype</t>
   </si>
   <si>
-    <t>businessClass</t>
+    <t>Business Class</t>
   </si>
 </sst>
 </file>
@@ -176,17 +176,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -530,105 +530,114 @@
   <dimension ref="A1:EZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="3" customWidth="1"/>
-    <col min="6" max="156" width="9.21875" style="4"/>
-    <col min="157" max="16384" width="9.21875" style="3"/>
+    <col min="1" max="1" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="156" width="9.21875" style="3"/>
+    <col min="157" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="7">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="7">
         <v>1</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
     </row>

--- a/TestData/NewToursTestData.xlsx
+++ b/TestData/NewToursTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhre\Documents\GSync\PCSync\Programs_WorkSpace\MVNCucumberSelenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419DF558-B1AE-4487-AC8F-C4C83E515C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8FFB6F-00ED-4087-B498-3601DDD3C90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>Business Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 </t>
   </si>
 </sst>
 </file>
@@ -176,7 +185,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -187,6 +196,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -530,7 +540,7 @@
   <dimension ref="A1:EZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -616,8 +626,8 @@
       <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7">
-        <v>2</v>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>12</v>
@@ -625,8 +635,8 @@
       <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7">
-        <v>15</v>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>17</v>
@@ -634,8 +644,8 @@
       <c r="L2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="7">
-        <v>1</v>
+      <c r="M2" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>22</v>
